--- a/assets/data/dropship.xlsx
+++ b/assets/data/dropship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/368813f78804d80c/Desktop/Project AtBS/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AF65FC4BA660B432D12D4C90152A15BD79796AE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E1C5BD-0479-45ED-88AA-95AD09AD4371}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_AF65FC4BA660B432D12D4C90152A15BD79796AE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC66F7E-70F4-4A3F-A1AD-CF2E696DB7D0}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="1" r:id="rId1"/>
@@ -2261,46 +2261,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2332,42 +2300,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2382,6 +2318,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2707,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,6 +2656,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6922,18 +6863,18 @@
   </sheetData>
   <autoFilter ref="A1:D380" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D380">
-      <sortCondition sortBy="cellColor" ref="C1:C380" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="C1:C380" dxfId="3"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C1:C1048576 D1">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>TRUE</formula>
+  <conditionalFormatting sqref="D1 C1:C1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",C1)))</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
